--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -179,7 +179,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneMorte.atto.enteEstero</t>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -236,223 +236,223 @@
     <t>Data richiesta</t>
   </si>
   <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Ruolo ente dichiarante</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.autoritaMittente</t>
+  </si>
+  <si>
+    <t>ruoloEnteDichiarante</t>
+  </si>
+  <si>
+    <t>Deceduto</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Coniuge</t>
+  </si>
+  <si>
+    <t>evento.coniuge</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
     <t>evento.trascrizioneMorte</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Ruolo ente dichiarante</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.autoritaMittente</t>
-  </si>
-  <si>
-    <t>ruoloEnteDichiarante</t>
-  </si>
-  <si>
-    <t>Deceduto</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Coniuge</t>
-  </si>
-  <si>
-    <t>evento.coniuge</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Unito civilmente</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
   </si>
   <si>
     <t>Riassunto</t>
@@ -541,7 +541,7 @@
     <col min="1" max="1" width="21.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="39.5390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1177,10 +1177,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1191,16 +1191,16 @@
         <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1217,7 +1217,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>60</v>
@@ -1228,19 +1228,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1248,19 +1248,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1288,19 +1288,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1308,19 +1308,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1328,19 +1328,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1348,19 +1348,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1368,19 +1368,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1388,19 +1388,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1408,19 +1408,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1428,19 +1428,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1448,19 +1448,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1468,19 +1468,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1488,19 +1488,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1508,19 +1508,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1528,19 +1528,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1548,19 +1548,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1568,19 +1568,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1588,19 +1588,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1608,19 +1608,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1628,19 +1628,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1648,19 +1648,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1668,19 +1668,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1688,19 +1688,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1708,19 +1708,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1728,19 +1728,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1748,19 +1748,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1768,19 +1768,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1788,19 +1788,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1828,19 +1828,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1848,19 +1848,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1868,19 +1868,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1888,19 +1888,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1908,19 +1908,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1928,19 +1928,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1948,19 +1948,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1968,19 +1968,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1988,19 +1988,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2008,19 +2008,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2028,19 +2028,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2048,19 +2048,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2068,19 +2068,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2088,19 +2088,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2108,19 +2108,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2128,19 +2128,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2148,19 +2148,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2168,19 +2168,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2188,19 +2188,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2228,19 +2228,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2248,19 +2248,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2268,19 +2268,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2288,19 +2288,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2308,19 +2308,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2328,19 +2328,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2348,19 +2348,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2368,19 +2368,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2388,19 +2388,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2408,19 +2408,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2428,19 +2428,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2448,19 +2448,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2468,19 +2468,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2488,19 +2488,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2508,19 +2508,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>147</v>
@@ -2537,7 +2537,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>148</v>
@@ -2557,7 +2557,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>151</v>
@@ -2577,7 +2577,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>153</v>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -176,12 +176,24 @@
     <t>Sentenza di scomparsa</t>
   </si>
   <si>
+    <t>Ruolo ente dichiarante</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>ruoloEnteDichiarante</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
-  </si>
-  <si>
     <t>dataTrascrizione</t>
   </si>
   <si>
@@ -191,10 +203,37 @@
     <t>estremiDocumento</t>
   </si>
   <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
+    <t>Data richiesta</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Stato ente</t>
@@ -203,51 +242,9 @@
     <t>nazioneEnte</t>
   </si>
   <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
     <t>nomeNazioneEnte</t>
   </si>
   <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Data richiesta</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Ruolo ente dichiarante</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.autoritaMittente</t>
-  </si>
-  <si>
-    <t>ruoloEnteDichiarante</t>
-  </si>
-  <si>
     <t>Deceduto</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
     <t>Data richiesta trascrizione</t>
   </si>
   <si>
-    <t>evento.trascrizioneMorte</t>
-  </si>
-  <si>
     <t>Riassunto</t>
   </si>
   <si>
@@ -474,6 +468,12 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Tipo scomparsa</t>
+  </si>
+  <si>
+    <t>tipoScomparsa</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>55</v>
@@ -1003,7 +1003,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>55</v>
@@ -1023,7 +1023,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1077,10 +1077,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1091,16 +1091,16 @@
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1111,19 +1111,19 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1131,16 +1131,16 @@
         <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1151,19 +1151,19 @@
         <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1171,16 +1171,16 @@
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1191,16 +1191,16 @@
         <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1208,19 +1208,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1228,19 +1228,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1248,19 +1248,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1288,19 +1288,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1308,19 +1308,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1328,19 +1328,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1348,19 +1348,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1368,19 +1368,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1388,19 +1388,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1408,19 +1408,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1428,19 +1428,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1448,19 +1448,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1468,19 +1468,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1488,19 +1488,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1508,19 +1508,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1528,19 +1528,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1548,19 +1548,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1568,19 +1568,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1588,19 +1588,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1608,19 +1608,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1628,19 +1628,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1648,19 +1648,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1668,19 +1668,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1688,19 +1688,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>122</v>
@@ -1717,10 +1717,10 @@
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>123</v>
@@ -1737,10 +1737,10 @@
         <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>124</v>
@@ -1757,10 +1757,10 @@
         <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>125</v>
@@ -1777,10 +1777,10 @@
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>126</v>
@@ -1797,10 +1797,10 @@
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>127</v>
@@ -1817,10 +1817,10 @@
         <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>128</v>
@@ -1837,10 +1837,10 @@
         <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>129</v>
@@ -1857,10 +1857,10 @@
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>130</v>
@@ -1877,10 +1877,10 @@
         <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>131</v>
@@ -1897,10 +1897,10 @@
         <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>132</v>
@@ -1917,10 +1917,10 @@
         <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>133</v>
@@ -1937,10 +1937,10 @@
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>134</v>
@@ -1957,10 +1957,10 @@
         <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>135</v>
@@ -1977,10 +1977,10 @@
         <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>136</v>
@@ -1997,10 +1997,10 @@
         <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2008,19 +2008,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2028,19 +2028,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2048,19 +2048,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2068,19 +2068,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2088,19 +2088,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2108,19 +2108,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2128,19 +2128,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>122</v>
@@ -2157,10 +2157,10 @@
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>123</v>
@@ -2177,10 +2177,10 @@
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>124</v>
@@ -2197,10 +2197,10 @@
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>125</v>
@@ -2217,10 +2217,10 @@
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>126</v>
@@ -2237,10 +2237,10 @@
         <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>127</v>
@@ -2257,10 +2257,10 @@
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>128</v>
@@ -2277,10 +2277,10 @@
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>129</v>
@@ -2297,10 +2297,10 @@
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>130</v>
@@ -2317,10 +2317,10 @@
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>131</v>
@@ -2337,10 +2337,10 @@
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>132</v>
@@ -2357,10 +2357,10 @@
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>133</v>
@@ -2377,10 +2377,10 @@
         <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>134</v>
@@ -2397,10 +2397,10 @@
         <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>135</v>
@@ -2417,10 +2417,10 @@
         <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>136</v>
@@ -2437,10 +2437,10 @@
         <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2448,19 +2448,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2468,19 +2468,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2491,16 +2491,16 @@
         <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>145</v>
@@ -2517,10 +2517,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2528,19 +2528,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>150</v>
@@ -2557,7 +2557,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>151</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>152</v>
@@ -2577,7 +2577,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>153</v>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -377,6 +383,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -441,6 +450,9 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -532,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -544,6 +556,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -565,45 +578,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -625,1965 +647,2262 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>191.1</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>191.1</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -648,2261 +651,2261 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -386,7 +386,7 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -455,7 +455,7 @@
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -559,7 +559,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nomeComuneMorte</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Indirizzo</t>
   </si>
   <si>
@@ -324,6 +330,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -547,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1070,22 +1079,22 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>18</v>
@@ -1093,16 +1102,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1116,22 +1125,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>18</v>
@@ -1139,7 +1148,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1148,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1162,7 +1171,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1171,10 +1180,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1185,16 +1194,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1208,7 +1217,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1217,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>18</v>
@@ -1231,7 +1240,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1240,13 +1249,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>18</v>
@@ -1254,7 +1263,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1263,13 +1272,13 @@
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>18</v>
@@ -1277,7 +1286,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1286,13 +1295,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>18</v>
@@ -1300,19 +1309,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1323,19 +1332,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1346,16 +1355,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1369,16 +1378,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1392,16 +1401,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1415,7 +1424,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1424,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1438,7 +1447,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1447,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1461,7 +1470,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1470,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1484,16 +1493,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1507,7 +1516,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1516,7 +1525,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1530,7 +1539,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1539,7 +1548,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1553,7 +1562,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1562,7 +1571,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1576,16 +1585,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1599,19 +1608,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1631,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1654,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1677,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1700,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1723,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1746,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1769,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1783,306 +1792,306 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>134</v>
@@ -2091,21 +2100,21 @@
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>135</v>
@@ -2114,21 +2123,21 @@
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>136</v>
@@ -2137,21 +2146,21 @@
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>137</v>
@@ -2160,21 +2169,21 @@
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>138</v>
@@ -2183,21 +2192,21 @@
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>139</v>
@@ -2206,21 +2215,21 @@
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>140</v>
@@ -2229,228 +2238,228 @@
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>128</v>
@@ -2459,21 +2468,21 @@
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>129</v>
@@ -2482,21 +2491,21 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>130</v>
@@ -2505,21 +2514,21 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>131</v>
@@ -2528,21 +2537,21 @@
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>132</v>
@@ -2551,21 +2560,21 @@
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>133</v>
@@ -2574,337 +2583,429 @@
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -498,6 +498,105 @@
   </si>
   <si>
     <t>tipoScomparsa</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -556,17 +655,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.4609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3009,6 +3108,351 @@
         <v>18</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="203">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -655,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1937,1157 +1961,1157 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>160</v>
@@ -3099,7 +3123,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3110,122 +3134,122 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>175</v>
@@ -3234,7 +3258,7 @@
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>176</v>
@@ -3243,12 +3267,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>177</v>
@@ -3257,136 +3281,136 @@
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>188</v>
@@ -3395,61 +3419,153 @@
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="204">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,6 +284,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -440,10 +446,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -679,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1553,7 +1556,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>84</v>
@@ -1645,7 +1648,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>84</v>
@@ -1734,7 +1737,7 @@
         <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
@@ -1743,7 +1746,7 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1757,10 +1760,10 @@
         <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>84</v>
@@ -1852,7 +1855,7 @@
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>84</v>
@@ -2053,145 +2056,145 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>138</v>
@@ -2200,21 +2203,21 @@
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>139</v>
@@ -2223,21 +2226,21 @@
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>140</v>
@@ -2246,21 +2249,21 @@
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>141</v>
@@ -2269,573 +2272,573 @@
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>142</v>
@@ -2844,21 +2847,21 @@
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>143</v>
@@ -2867,332 +2870,332 @@
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3203,10 +3206,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3215,7 +3218,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3226,346 +3229,415 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -682,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1832,7 +1838,7 @@
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>84</v>
@@ -1855,7 +1861,7 @@
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>84</v>
@@ -2079,375 +2085,375 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>147</v>
@@ -2456,21 +2462,21 @@
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>148</v>
@@ -2479,21 +2485,21 @@
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>149</v>
@@ -2502,21 +2508,21 @@
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>150</v>
@@ -2525,21 +2531,21 @@
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>151</v>
@@ -2548,21 +2554,21 @@
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>152</v>
@@ -2571,228 +2577,228 @@
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>140</v>
@@ -2801,21 +2807,21 @@
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>141</v>
@@ -2824,21 +2830,21 @@
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>142</v>
@@ -2847,21 +2853,21 @@
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>143</v>
@@ -2870,113 +2876,113 @@
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>146</v>
@@ -2985,200 +2991,200 @@
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
@@ -3186,22 +3192,22 @@
         <v>160</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -3209,62 +3215,62 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3275,10 +3281,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3287,7 +3293,7 @@
         <v>69</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3298,346 +3304,415 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="B131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -688,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2433,7 +2439,7 @@
         <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
@@ -2442,7 +2448,7 @@
         <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2456,7 +2462,7 @@
         <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
@@ -2465,7 +2471,7 @@
         <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2479,7 +2485,7 @@
         <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
@@ -2488,7 +2494,7 @@
         <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2502,7 +2508,7 @@
         <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
@@ -2511,7 +2517,7 @@
         <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2525,7 +2531,7 @@
         <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
@@ -2534,7 +2540,7 @@
         <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2548,7 +2554,7 @@
         <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
@@ -2557,7 +2563,7 @@
         <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2571,7 +2577,7 @@
         <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
@@ -2580,7 +2586,7 @@
         <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2594,7 +2600,7 @@
         <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
@@ -2603,7 +2609,7 @@
         <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2617,7 +2623,7 @@
         <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
@@ -2626,7 +2632,7 @@
         <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2683,11 +2689,11 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
@@ -2695,67 +2701,67 @@
         <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
@@ -2764,21 +2770,21 @@
         <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
@@ -2787,21 +2793,21 @@
         <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
@@ -2810,21 +2816,21 @@
         <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
@@ -2833,21 +2839,21 @@
         <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
@@ -2856,21 +2862,21 @@
         <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
@@ -2879,21 +2885,21 @@
         <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
@@ -2902,21 +2908,21 @@
         <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
@@ -2925,21 +2931,21 @@
         <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2948,21 +2954,21 @@
         <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
@@ -2971,21 +2977,21 @@
         <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
@@ -2994,21 +3000,21 @@
         <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
@@ -3017,18 +3023,18 @@
         <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>147</v>
@@ -3040,21 +3046,21 @@
         <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
@@ -3063,18 +3069,18 @@
         <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>149</v>
@@ -3086,18 +3092,18 @@
         <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>150</v>
@@ -3109,18 +3115,18 @@
         <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>151</v>
@@ -3132,18 +3138,18 @@
         <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>152</v>
@@ -3155,18 +3161,18 @@
         <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>153</v>
@@ -3178,18 +3184,18 @@
         <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>154</v>
@@ -3201,21 +3207,21 @@
         <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
@@ -3224,21 +3230,21 @@
         <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
@@ -3247,13 +3253,13 @@
         <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112">
@@ -3261,22 +3267,22 @@
         <v>162</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -3284,39 +3290,39 @@
         <v>162</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3356,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3373,346 +3379,392 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="B133" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -694,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3701,39 +3707,39 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>205</v>
@@ -3747,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>206</v>
@@ -3756,7 +3762,7 @@
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>207</v>
@@ -3765,6 +3771,29 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -2149,7 +2149,7 @@
         <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>138</v>
@@ -2747,7 +2747,7 @@
         <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>138</v>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="216">
   <si>
     <t>Sezione</t>
   </si>
@@ -642,6 +642,24 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Atto Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,3,4,5,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Atto Unione Civile</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoUnioneCivile</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,5,7,8,9)</t>
   </si>
 </sst>
 </file>
@@ -700,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -712,7 +730,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3797,6 +3815,558 @@
         <v>18</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_008.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="220">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -718,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1638,7 +1650,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>84</v>
@@ -1661,7 +1673,7 @@
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>84</v>
@@ -1707,7 +1719,7 @@
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>84</v>
@@ -1730,7 +1742,7 @@
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>84</v>
@@ -1796,7 +1808,7 @@
         <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
@@ -1805,7 +1817,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1819,16 +1831,16 @@
         <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1842,10 +1854,10 @@
         <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>84</v>
@@ -1868,7 +1880,7 @@
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>84</v>
@@ -1891,7 +1903,7 @@
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>84</v>
@@ -2138,214 +2150,214 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>144</v>
@@ -2354,21 +2366,21 @@
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>145</v>
@@ -2377,159 +2389,159 @@
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>150</v>
@@ -2538,21 +2550,21 @@
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>151</v>
@@ -2561,44 +2573,44 @@
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>153</v>
@@ -2607,21 +2619,21 @@
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>154</v>
@@ -2630,21 +2642,21 @@
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>155</v>
@@ -2653,21 +2665,21 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>156</v>
@@ -2676,366 +2688,366 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>146</v>
@@ -3044,21 +3056,21 @@
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>147</v>
@@ -3067,44 +3079,44 @@
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>149</v>
@@ -3113,1258 +3125,1396 @@
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C139" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>215</v>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
